--- a/excel/DATA_MIG_result.xlsx
+++ b/excel/DATA_MIG_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Ordre</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>EA</t>
+  </si>
+  <si>
+    <t>SUPPLIER_INFO_GENERAL</t>
   </si>
 </sst>
 </file>
@@ -450,6 +453,9 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/excel/DATA_MIG_result.xlsx
+++ b/excel/DATA_MIG_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Ordre</t>
   </si>
@@ -25,25 +25,43 @@
     <t>Type</t>
   </si>
   <si>
-    <t>ID job migration</t>
-  </si>
-  <si>
-    <t>Group job migration</t>
+    <t>View détecté</t>
+  </si>
+  <si>
+    <t>Job ID</t>
+  </si>
+  <si>
+    <t>Group ID</t>
   </si>
   <si>
     <t>Statut</t>
   </si>
   <si>
-    <t>View détecté</t>
-  </si>
-  <si>
     <t>https://a4re-d03.build.ifsdemoworld.com/main/ifsapplications/web/page/Supplier/Form;path=0.1632440489.1296968462.1135537338.470841190;record=KFN1cHBsaWVySWQ9JzEwMDE2MScp</t>
   </si>
   <si>
+    <t>https://a4re-d03.build.ifsdemoworld.com/main/ifsapplications/web/page/SalesPart/Form;path=0.995139193.17566481.12569573;record=KENhdGFsb2dObz0nSVRFTUZHRDAwMycsQ29udHJhY3Q9J0lXRjAxJyk%3D</t>
+  </si>
+  <si>
     <t>EA</t>
   </si>
   <si>
     <t>SUPPLIER_INFO_GENERAL</t>
+  </si>
+  <si>
+    <t>SALES_PART</t>
+  </si>
+  <si>
+    <t>EA_SUPPLIER_INFO_GEN_X</t>
+  </si>
+  <si>
+    <t>EA_SALES_PART_X</t>
+  </si>
+  <si>
+    <t>MIG_SLKCP</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -414,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,15 +469,48 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C3" t="s">
         <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/DATA_MIG_result.xlsx
+++ b/excel/DATA_MIG_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Ordre</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Type</t>
   </si>
   <si>
+    <t>View</t>
+  </si>
+  <si>
     <t>View détecté</t>
   </si>
   <si>
@@ -40,12 +43,18 @@
     <t>https://a4re-d03.build.ifsdemoworld.com/main/ifsapplications/web/page/Supplier/Form;path=0.1632440489.1296968462.1135537338.470841190;record=KFN1cHBsaWVySWQ9JzEwMDE2MScp</t>
   </si>
   <si>
+    <t>https://a4re-d03.build.ifsdemoworld.com/main/ifsapplications/web/page/Supplier/AddressInfo;record=KFN1cHBsaWVySWQ9JzEwMDE2MScp;path=0.1632440489.1296968462.1135537338.470841190.274375856</t>
+  </si>
+  <si>
     <t>https://a4re-d03.build.ifsdemoworld.com/main/ifsapplications/web/page/SalesPart/Form;path=0.995139193.17566481.12569573;record=KENhdGFsb2dObz0nSVRFTUZHRDAwMycsQ29udHJhY3Q9J0lXRjAxJyk%3D</t>
   </si>
   <si>
     <t>EA</t>
   </si>
   <si>
+    <t>SUPPLIER_INFO_ADDRESS</t>
+  </si>
+  <si>
     <t>SUPPLIER_INFO_GENERAL</t>
   </si>
   <si>
@@ -53,6 +62,9 @@
   </si>
   <si>
     <t>EA_SUPPLIER_INFO_GEN_X</t>
+  </si>
+  <si>
+    <t>EA_SUPPLIER_INFO_ADD_X</t>
   </si>
   <si>
     <t>EA_SALES_PART_X</t>
@@ -432,13 +444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,57 +472,87 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
-        <v>15</v>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
